--- a/hw5/simple_code.xlsx
+++ b/hw5/simple_code.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Madeleine\Documents\2110\Spring19\hw5-spring19\student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\CS 2110\hw5\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65DD54A-7A6F-4D07-88D3-2B195AF1588F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6848"/>
+    <workbookView xWindow="4485" yWindow="465" windowWidth="15555" windowHeight="12097" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Memory Address</t>
   </si>
@@ -129,12 +129,39 @@
   </si>
   <si>
     <t>0001011011000100</t>
+  </si>
+  <si>
+    <t>0110011001000000</t>
+  </si>
+  <si>
+    <t>1001100010111111</t>
+  </si>
+  <si>
+    <t>1110001000001010</t>
+  </si>
+  <si>
+    <t>0001100100100001</t>
+  </si>
+  <si>
+    <t>0111011001000000</t>
+  </si>
+  <si>
+    <t>0001010010100001</t>
+  </si>
+  <si>
+    <t>1111000000000000</t>
+  </si>
+  <si>
+    <t>0001011010111100</t>
+  </si>
+  <si>
+    <t>0000100111111000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +254,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -539,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -586,10 +613,12 @@
       <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="3" t="str">
         <f>CONCATENATE(BIN2HEX(LEFT(SUBSTITUTE(E2," ",""), 8), 2),BIN2HEX(RIGHT(SUBSTITUTE(E2," ",""), 8), 2))</f>
-        <v>0000</v>
+        <v>E20A</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -624,10 +653,12 @@
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -641,10 +672,12 @@
       <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>98BF</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -658,10 +691,12 @@
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="F6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0000</v>
+        <f>CONCATENATE(BIN2HEX(LEFT(SUBSTITUTE(E6," ",""), 8), 2),BIN2HEX(RIGHT(SUBSTITUTE(E6," ",""), 8), 2))</f>
+        <v>1921</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -694,10 +729,12 @@
       <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -711,10 +748,12 @@
       <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="F9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>14A1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -728,10 +767,12 @@
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>16BC</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -745,10 +786,12 @@
       <c r="D11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>09F8</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -762,10 +805,12 @@
       <c r="D12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0000</v>
+        <v>F000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
